--- a/SAP_Yapilandirilmis.xlsx
+++ b/SAP_Yapilandirilmis.xlsx
@@ -481,10 +481,10 @@
         <v>720</v>
       </c>
       <c r="C3" t="n">
-        <v>56975</v>
+        <v>180</v>
       </c>
       <c r="D3" t="n">
-        <v>57695</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32670</v>
+        <v>360</v>
       </c>
       <c r="C9" t="n">
         <v>3770</v>
       </c>
       <c r="D9" t="n">
-        <v>36440</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="10">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31125</v>
+        <v>2045</v>
       </c>
       <c r="C13" t="n">
-        <v>56475</v>
+        <v>2530</v>
       </c>
       <c r="D13" t="n">
-        <v>87600</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65340</v>
+        <v>84340</v>
       </c>
       <c r="C14" t="n">
-        <v>113950</v>
+        <v>158255</v>
       </c>
       <c r="D14" t="n">
-        <v>179290</v>
+        <v>242595</v>
       </c>
     </row>
   </sheetData>
